--- a/QA_Class_31_Data_Parameterization/bin/TestSuite/SAUCE_LOGIN.xlsx
+++ b/QA_Class_31_Data_Parameterization/bin/TestSuite/SAUCE_LOGIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SAUCE" sheetId="1" r:id="rId1"/>
@@ -1016,8 +1016,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1127,7 +1127,7 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
